--- a/LinoVative.Web.Api/Resources/ExcelFiles/CreateItemGroupTemplate.xlsx
+++ b/LinoVative.Web.Api/Resources/ExcelFiles/CreateItemGroupTemplate.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\LINOVATIVE\LinoVativeProject\LinovativeSolution\Linovative.Api\Resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\LinoValtiveSolutions\LinoVative.Web.Api\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D146B60E-A288-4C2B-8B20-5EDA578F2717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648600F7-8485-4B5C-BB4B-5F77C6E09F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11085" yWindow="-32520" windowWidth="57840" windowHeight="31920" xr2:uid="{DDEE30A6-2B18-41C6-85EB-1999D5C66F47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DDEE30A6-2B18-41C6-85EB-1999D5C66F47}"/>
   </bookViews>
   <sheets>
-    <sheet name="Create Item Group" sheetId="1" r:id="rId1"/>
+    <sheet name="Create Group" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -426,12 +426,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/LinoVative.Web.Api/Resources/ExcelFiles/CreateItemGroupTemplate.xlsx
+++ b/LinoVative.Web.Api/Resources/ExcelFiles/CreateItemGroupTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\LinoValtiveSolutions\LinoVative.Web.Api\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648600F7-8485-4B5C-BB4B-5F77C6E09F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B19171-EABB-46CC-AF56-32A4C6947E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DDEE30A6-2B18-41C6-85EB-1999D5C66F47}"/>
   </bookViews>
@@ -52,6 +52,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="2" tint="-0.749992370372631"/>
       <name val="Aptos Narrow"/>

--- a/LinoVative.Web.Api/Resources/ExcelFiles/CreateItemGroupTemplate.xlsx
+++ b/LinoVative.Web.Api/Resources/ExcelFiles/CreateItemGroupTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\LinoValtiveSolutions\LinoVative.Web.Api\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B19171-EABB-46CC-AF56-32A4C6947E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850BA1A6-2F28-45CD-84DB-1866D75FED44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DDEE30A6-2B18-41C6-85EB-1999D5C66F47}"/>
   </bookViews>
@@ -34,9 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Item Group Name</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -423,21 +426,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56733355-42C7-4069-9CC5-8A34B990EF30}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>